--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -453,13 +453,13 @@
         <v>100</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9998295474336449</v>
+        <v>0.2630136783801007</v>
       </c>
       <c r="E2">
-        <v>0.9998295474336449</v>
+        <v>0.2630136783801007</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999409045808947</v>
+        <v>0.9999969903038608</v>
       </c>
       <c r="E3">
-        <v>0.9999409045808947</v>
+        <v>0.9999969903038608</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.202668919030524E-37</v>
+        <v>6.247737606847879E-26</v>
       </c>
       <c r="E4">
-        <v>1.202668919030524E-37</v>
+        <v>6.247737606847879E-26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9994783442508489</v>
+        <v>0.9999998725965373</v>
       </c>
       <c r="E5">
-        <v>0.9994783442508489</v>
+        <v>0.9999998725965373</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9984588450195708</v>
+        <v>0.996379558015915</v>
       </c>
       <c r="E6">
-        <v>0.9984588450195708</v>
+        <v>0.996379558015915</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.573433838434016E-09</v>
+        <v>7.876848809716225E-08</v>
       </c>
       <c r="E7">
-        <v>0.9999999924265661</v>
+        <v>0.9999999212315119</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999985367712224</v>
+        <v>0.9999995583469222</v>
       </c>
       <c r="E9">
-        <v>1.463228777587311E-06</v>
+        <v>4.416530777762162E-07</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04564966192039774</v>
+        <v>0.02316974730604013</v>
       </c>
       <c r="E10">
-        <v>0.9543503380796022</v>
+        <v>0.9768302526939598</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.162035260091626E-15</v>
+        <v>2.230715265620821E-06</v>
       </c>
       <c r="E11">
-        <v>0.9999999999999969</v>
+        <v>0.9999977692847344</v>
       </c>
       <c r="F11">
-        <v>8.762006759643555</v>
+        <v>6.765077114105225</v>
       </c>
       <c r="G11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
